--- a/data/evaluation/evaluation_South_Spring_Fennel.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Fennel.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2836.22015625</v>
+        <v>2720.50465625</v>
       </c>
       <c r="C3" t="n">
-        <v>19441009.59844701</v>
+        <v>19192388.829491</v>
       </c>
       <c r="D3" t="n">
-        <v>4409.196026312167</v>
+        <v>4380.911871915595</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4379910182667806</v>
+        <v>-0.4196013132001326</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2932.111976787707</v>
+        <v>3059.606984464255</v>
       </c>
       <c r="C4" t="n">
-        <v>18236620.49479156</v>
+        <v>18552691.17874778</v>
       </c>
       <c r="D4" t="n">
-        <v>4270.4356329058</v>
+        <v>4307.283503409983</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3489061019313007</v>
+        <v>-0.3722848674406183</v>
       </c>
     </row>
     <row r="5">
